--- a/gend sample - Copy.xlsx
+++ b/gend sample - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Others\StreamLit_Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D8E11F-F5F5-4AB4-ABF3-F312C2F6E7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E70A2-A43D-4FAF-A101-395D4962F7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{F00BC979-6386-4C2B-AEF5-4AAF9356E276}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>MARVIN</t>
   </si>
   <si>
-    <t>ELLNA</t>
-  </si>
-  <si>
     <t>VOLTAIRE</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>royette</t>
+  </si>
+  <si>
+    <t>Elleck</t>
+  </si>
+  <si>
+    <t>ELLNAH</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BC4E9-0B32-48A9-861E-C4C006E71094}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -432,26 +435,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
